--- a/municipal/ვაჭრობა/ბაზრების და ბაზრობების დირექციებში დასაქმებულთა რაოდენობა/ბაზრების და ბაზრობების დირექციებში დასაქმებულთა საშუალო წლიური რაოდენობა.xlsx
+++ b/municipal/ვაჭრობა/ბაზრების და ბაზრობების დირექციებში დასაქმებულთა რაოდენობა/ბაზრების და ბაზრობების დირექციებში დასაქმებულთა საშუალო წლიური რაოდენობა.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ვაჭრობა ქარ. EN\ბაზრების და ბაზრობების დირექციებში დასაქმებულთა რაოდენობა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\ბაზრების და ბაზრობების დირექციებში დასაქმებულთა რაოდენობა\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,10 +233,28 @@
     <t>ხაშურის მუნიციპალიტეტი</t>
   </si>
   <si>
-    <t>... - მონაცემი არ არის ან კონფიდენციალურია</t>
-  </si>
-  <si>
     <t xml:space="preserve">ბაზრების და ბაზრობების დირექციებში დასაქმებულთა საშუალო წლიური რაოდენობა </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "..." - მონაცემი არ არის ან კონფიდენციალურია</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -246,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +334,13 @@
     </font>
     <font>
       <i/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
@@ -769,7 +794,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -969,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3139,7 +3166,7 @@
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -3155,5 +3182,6 @@
     <mergeCell ref="A70:E70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>